--- a/doc/Checklist.xlsx
+++ b/doc/Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15191" windowHeight="9120"/>
+    <workbookView windowWidth="30720" windowHeight="13655"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -165,12 +165,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="_-&quot;€&quot;\ * #,##0_-;\-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * \-_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * \-??_-;_-@_-"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,6 +226,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -234,30 +242,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,6 +293,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -294,14 +316,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -325,8 +339,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,7 +349,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -343,28 +358,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -398,13 +391,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,31 +505,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,127 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -583,6 +576,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -674,160 +676,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1185,8 +1178,8 @@
   <sheetPr/>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1234,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1258,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1282,7 +1275,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">

--- a/doc/Checklist.xlsx
+++ b/doc/Checklist.xlsx
@@ -165,9 +165,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;\ * #,##0_-;\-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * \-_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;\ * #,##0_-;\-&quot;€&quot;\ * #,##0_-;_-&quot;€&quot;\ * \-_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * \-??_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
@@ -226,6 +226,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -234,52 +241,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,14 +287,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -333,12 +319,33 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -358,13 +365,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -397,61 +397,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -463,109 +553,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -576,15 +576,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -636,6 +627,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -679,7 +679,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -697,130 +697,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1227,7 +1227,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1251,7 +1251,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1275,7 +1275,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:2">
